--- a/리스트.xlsx
+++ b/리스트.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2015(미완)" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="2016(미완)" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="2017" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="2018" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="대상 후보" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="2015" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="2016" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="2017" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="2018" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,11 +15,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="211">
   <si>
     <t>풀타임</t>
   </si>
   <si>
+    <t>9/29~</t>
+  </si>
+  <si>
+    <t>2/22~</t>
+  </si>
+  <si>
+    <t>2/18~</t>
+  </si>
+  <si>
+    <t>나 혼자 산다</t>
+  </si>
+  <si>
+    <t>능력자들</t>
+  </si>
+  <si>
+    <t>라디오 스타</t>
+  </si>
+  <si>
+    <t>마이 리틀 텔레비전</t>
+  </si>
+  <si>
+    <t>무한도전</t>
+  </si>
+  <si>
+    <t>섹션TV 연예통신</t>
+  </si>
+  <si>
+    <t>쇼! 음악중심</t>
+  </si>
+  <si>
+    <t>우리 결혼했어요</t>
+  </si>
+  <si>
+    <t>일밤-복면가왕</t>
+  </si>
+  <si>
+    <t>일밤-진짜 사나이</t>
+  </si>
+  <si>
+    <t>전현무</t>
+  </si>
+  <si>
+    <t>김구라</t>
+  </si>
+  <si>
+    <t>윤종신</t>
+  </si>
+  <si>
+    <t>박명수</t>
+  </si>
+  <si>
+    <t>김국진</t>
+  </si>
+  <si>
+    <t>민호</t>
+  </si>
+  <si>
+    <t>김성주</t>
+  </si>
+  <si>
+    <t>김광규</t>
+  </si>
+  <si>
+    <t>정준하</t>
+  </si>
+  <si>
+    <t>김영철</t>
+  </si>
+  <si>
+    <t>소이현</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>육중완</t>
+  </si>
+  <si>
+    <t>윤박</t>
+  </si>
+  <si>
+    <t>초아</t>
+  </si>
+  <si>
+    <t>유재석</t>
+  </si>
+  <si>
+    <t>임지연</t>
+  </si>
+  <si>
+    <t>지코</t>
+  </si>
+  <si>
+    <t>신봉선</t>
+  </si>
+  <si>
+    <t>김용건</t>
+  </si>
+  <si>
+    <t>은지원</t>
+  </si>
+  <si>
+    <t>규현</t>
+  </si>
+  <si>
+    <t>백종원</t>
+  </si>
+  <si>
+    <t>하하</t>
+  </si>
+  <si>
+    <t>예리</t>
+  </si>
+  <si>
+    <t>이윤석</t>
+  </si>
+  <si>
+    <t>강남</t>
+  </si>
+  <si>
+    <t>정형돈</t>
+  </si>
+  <si>
+    <t>이은결</t>
+  </si>
+  <si>
+    <t>엔</t>
+  </si>
+  <si>
+    <t>김현철</t>
+  </si>
+  <si>
+    <t>이태곤</t>
+  </si>
+  <si>
+    <t>김영만</t>
+  </si>
+  <si>
+    <t>황광희</t>
+  </si>
+  <si>
+    <t>김민재</t>
+  </si>
+  <si>
+    <t>유영석</t>
+  </si>
+  <si>
+    <t>김동완</t>
+  </si>
+  <si>
+    <t>황재근</t>
+  </si>
+  <si>
+    <t>김새론</t>
+  </si>
+  <si>
+    <t>차홍</t>
+  </si>
+  <si>
+    <t>강민혁</t>
+  </si>
+  <si>
+    <t>이말년</t>
+  </si>
+  <si>
+    <t>황석정</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>2015.01.02 86회~2015.12.25 137회</t>
+  </si>
+  <si>
+    <t>2015.11.13 1회~2015.12.25 7회</t>
+  </si>
+  <si>
+    <t>2015.01.07~2015.12.23</t>
+  </si>
+  <si>
+    <t>2015 설특집~2015.12.26 35회</t>
+  </si>
+  <si>
+    <t>무한도전 토요일 토요일은 가수다~무한도전 &lt;무도 공개수배&gt; 두번째 이야기</t>
+  </si>
+  <si>
+    <t>2015.01.04 756회~2015.12.27 807회</t>
+  </si>
+  <si>
+    <t>2015.01.03 438회~2015.12.26 485회</t>
+  </si>
+  <si>
+    <t>2015.01.03 253회~2015.12.26 301회</t>
+  </si>
+  <si>
+    <t>2015.04.19 3회~2015.12.27 39회</t>
+  </si>
+  <si>
+    <t>2015.01.04 1296회~2015.12.27 시즌2 43회</t>
+  </si>
+  <si>
+    <t>대상 후보</t>
+  </si>
+  <si>
     <t>4/14~</t>
   </si>
   <si>
@@ -31,18 +236,141 @@
     <t>6/5~</t>
   </si>
   <si>
-    <t>나 혼자 산다</t>
+    <t>2/8~</t>
+  </si>
+  <si>
+    <t>~11/27</t>
+  </si>
+  <si>
+    <t>듀엣가요제</t>
   </si>
   <si>
     <t>라디오스타</t>
   </si>
   <si>
-    <t>무한도전</t>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>유세윤</t>
+  </si>
+  <si>
+    <t>정샘물</t>
+  </si>
+  <si>
+    <t>백지영</t>
+  </si>
+  <si>
+    <t>데프콘</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>이국주</t>
+  </si>
+  <si>
+    <t>차은우</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>이경규</t>
+  </si>
+  <si>
+    <t>황치열</t>
+  </si>
+  <si>
+    <t>양정원</t>
+  </si>
+  <si>
+    <t>장우혁</t>
+  </si>
+  <si>
+    <t>기안84</t>
+  </si>
+  <si>
+    <t>김반장</t>
+  </si>
+  <si>
+    <t>강형욱</t>
+  </si>
+  <si>
+    <t>씨잼</t>
+  </si>
+  <si>
+    <t>2016.01.01 138회~2016.12.23 187회 스페셜(187회)</t>
+  </si>
+  <si>
+    <t>본방 카운트다운~2016.12.23 34회</t>
+  </si>
+  <si>
+    <t>2016.01.06~2016.12.28</t>
+  </si>
+  <si>
+    <t>2016.01.02 36회~2016.12.24 81회</t>
+  </si>
+  <si>
+    <t>무한도전 &lt;무도 공개수배&gt; 마지막 이야기~무한도전 &lt;산타 아카데미&gt;, &lt;위대한 유산&gt;</t>
+  </si>
+  <si>
+    <t>2016.01.03 808회~2016.12.25 858회</t>
+  </si>
+  <si>
+    <t>2016.01.02 486회~2016.12.24 535회</t>
+  </si>
+  <si>
+    <t>2016.01.02 302회~2016.12.24 353회</t>
+  </si>
+  <si>
+    <t>2016.01.03 40회~2016.12.25 91회</t>
+  </si>
+  <si>
+    <t>2016.01.03 시즌2 44회~2016.11.27 시즌2 91회</t>
+  </si>
+  <si>
+    <t>박명수(제외)</t>
+  </si>
+  <si>
+    <t>김영철(제외)</t>
   </si>
   <si>
     <t>복면가왕</t>
   </si>
   <si>
+    <t>박나래</t>
+  </si>
+  <si>
+    <t>9/30~</t>
+  </si>
+  <si>
+    <t>10/21~</t>
+  </si>
+  <si>
+    <t>10/11~</t>
+  </si>
+  <si>
+    <t>11/3~</t>
+  </si>
+  <si>
+    <t>3/3~</t>
+  </si>
+  <si>
+    <t>9/21~</t>
+  </si>
+  <si>
+    <t>9/21~11/30</t>
+  </si>
+  <si>
+    <t>5/5~10/27</t>
+  </si>
+  <si>
+    <t>6/3~9/23</t>
+  </si>
+  <si>
+    <t>공복자들</t>
+  </si>
+  <si>
     <t>발칙한 동거-빈방있음</t>
   </si>
   <si>
@@ -52,33 +380,12 @@
     <t>세모방: 세상의 모든 방송</t>
   </si>
   <si>
-    <t>섹션TV 연예통신</t>
-  </si>
-  <si>
-    <t>쇼! 음악중심</t>
-  </si>
-  <si>
     <t>오지의 마법사</t>
   </si>
   <si>
-    <t>전현무</t>
-  </si>
-  <si>
-    <t>김국진</t>
-  </si>
-  <si>
-    <t>유재석</t>
-  </si>
-  <si>
-    <t>김성주</t>
-  </si>
-  <si>
     <t>박한별</t>
   </si>
   <si>
-    <t>이경규</t>
-  </si>
-  <si>
     <t>이상민</t>
   </si>
   <si>
@@ -91,36 +398,15 @@
     <t>한혜진</t>
   </si>
   <si>
-    <t>윤종신</t>
-  </si>
-  <si>
-    <t>박명수</t>
-  </si>
-  <si>
-    <t>김구라</t>
-  </si>
-  <si>
     <t>양동근</t>
   </si>
   <si>
     <t>설인아</t>
   </si>
   <si>
-    <t>차은우</t>
-  </si>
-  <si>
     <t>윤정수</t>
   </si>
   <si>
-    <t>박나래</t>
-  </si>
-  <si>
-    <t>하하</t>
-  </si>
-  <si>
-    <t>신봉선</t>
-  </si>
-  <si>
     <t>아이비</t>
   </si>
   <si>
@@ -139,36 +425,21 @@
     <t>차태현</t>
   </si>
   <si>
-    <t>정준하</t>
-  </si>
-  <si>
-    <t>이윤석</t>
-  </si>
-  <si>
     <t>산다라박</t>
   </si>
   <si>
     <t>김수로</t>
   </si>
   <si>
-    <t>기안84</t>
-  </si>
-  <si>
     <t>양세형</t>
   </si>
   <si>
-    <t>김현철</t>
-  </si>
-  <si>
     <t>헨리</t>
   </si>
   <si>
     <t>엄기준</t>
   </si>
   <si>
-    <t>유영석</t>
-  </si>
-  <si>
     <t>이수경</t>
   </si>
   <si>
@@ -211,29 +482,188 @@
     <t>황금어장-라디오스타 태그로 들어가야</t>
   </si>
   <si>
-    <t>주요 예능</t>
-  </si>
-  <si>
-    <t>주요 출연진</t>
-  </si>
-  <si>
-    <t>분기별</t>
-  </si>
-  <si>
-    <t>네이버티비</t>
+    <t>궁민남편</t>
+  </si>
+  <si>
+    <t>대장금이 보고있다</t>
+  </si>
+  <si>
+    <t>서프라이즈</t>
+  </si>
+  <si>
+    <t>언더 나인틴</t>
+  </si>
+  <si>
+    <t>전지적 참견 시점</t>
+  </si>
+  <si>
+    <t>진짜 사나이 300</t>
+  </si>
+  <si>
+    <t>출발! 비디오 여행</t>
+  </si>
+  <si>
+    <t>아낌없이 주도록</t>
+  </si>
+  <si>
+    <t>뜻밖의 Q</t>
+  </si>
+  <si>
+    <t>두니아</t>
+  </si>
+  <si>
+    <t>노홍철</t>
+  </si>
+  <si>
+    <t>차인표</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>미나</t>
+  </si>
+  <si>
+    <t>이영자</t>
+  </si>
+  <si>
+    <t>강지환</t>
+  </si>
+  <si>
+    <t>이수근</t>
+  </si>
+  <si>
+    <t>김준현</t>
+  </si>
+  <si>
+    <t>김용만</t>
+  </si>
+  <si>
+    <t>권유리</t>
+  </si>
+  <si>
+    <t>마크</t>
+  </si>
+  <si>
+    <t>유병재</t>
+  </si>
+  <si>
+    <t>안현수</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>유민상</t>
+  </si>
+  <si>
+    <t>권오중</t>
+  </si>
+  <si>
+    <t>이열음</t>
+  </si>
+  <si>
+    <t>경리</t>
+  </si>
+  <si>
+    <t>옹성우</t>
+  </si>
+  <si>
+    <t>박성광</t>
+  </si>
+  <si>
+    <t>매튜</t>
+  </si>
+  <si>
+    <t>이동진</t>
+  </si>
+  <si>
+    <t>배명호</t>
+  </si>
+  <si>
+    <t>안정환</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>김호영</t>
+  </si>
+  <si>
+    <t>남창희</t>
+  </si>
+  <si>
+    <t>미쓰라</t>
+  </si>
+  <si>
+    <t>조태관</t>
+  </si>
+  <si>
+    <t>이민혁</t>
+  </si>
+  <si>
+    <t>송은이</t>
+  </si>
+  <si>
+    <t>홍석</t>
+  </si>
+  <si>
+    <t>부승관</t>
+  </si>
+  <si>
+    <t>권다현</t>
+  </si>
+  <si>
+    <t>오윤아</t>
+  </si>
+  <si>
+    <t>사이먼 도미닉</t>
+  </si>
+  <si>
+    <t>조장혁</t>
+  </si>
+  <si>
+    <t>김재화</t>
+  </si>
+  <si>
+    <t>화사</t>
+  </si>
+  <si>
+    <t>신지</t>
+  </si>
+  <si>
+    <t>성훈</t>
+  </si>
+  <si>
+    <t>카이</t>
+  </si>
+  <si>
+    <t>이유비</t>
+  </si>
+  <si>
+    <t>윤상</t>
+  </si>
+  <si>
+    <t>리사</t>
+  </si>
+  <si>
+    <t>솔지</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -249,21 +679,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,6 +734,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -298,7 +747,154 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>2015.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>2017.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -312,7 +908,280 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -332,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -341,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -356,216 +1225,220 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1" t="s">
-        <v>63</v>
+      <c r="A12" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -585,23 +1458,613 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/리스트.xlsx
+++ b/리스트.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bumso\datajournalism-2018\datajournalism-team-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC4F79-87E2-4F30-9E76-CC81B7096D15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="대상 후보" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="2015" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="2016" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="2017" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="2018" sheetId="5" r:id="rId7"/>
+    <sheet name="대상 후보" sheetId="1" r:id="rId1"/>
+    <sheet name="2015" sheetId="2" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId3"/>
+    <sheet name="2017" sheetId="4" r:id="rId4"/>
+    <sheet name="2018" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -653,24 +662,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -678,112 +697,407 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>2015.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2016.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -791,7 +1105,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -801,7 +1115,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -815,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -825,7 +1139,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -835,18 +1149,18 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -854,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -862,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -870,7 +1184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -878,7 +1192,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -886,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>107</v>
       </c>
@@ -895,21 +1209,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,20 +1260,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -973,7 +1292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1094,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1114,7 +1433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1125,7 +1444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1141,7 +1460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1149,7 +1468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1182,21 +1501,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,20 +1551,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1260,7 +1583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1593,7 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1286,7 +1609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1312,7 +1635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1335,7 +1658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -1355,7 +1678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -1369,7 +1692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -1380,7 +1703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1388,7 +1711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1396,7 +1719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -1404,12 +1727,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1442,21 +1765,25 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1847,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -1578,7 +1905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -1604,7 +1931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>134</v>
       </c>
@@ -1624,7 +1951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -1641,7 +1968,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -1655,7 +1982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
@@ -1687,32 +2014,36 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1762,23 +2093,23 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1793,7 +2124,7 @@
       <c r="J2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>159</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1812,7 +2143,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1850,7 +2181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>172</v>
       </c>
@@ -1888,7 +2219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>179</v>
       </c>
@@ -1926,7 +2257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>187</v>
       </c>
@@ -1958,7 +2289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>192</v>
       </c>
@@ -1984,7 +2315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>198</v>
       </c>
@@ -2002,7 +2333,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -2015,7 +2346,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -2028,7 +2359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -2041,7 +2372,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="F12" s="1" t="s">
@@ -2051,22 +2382,23 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="F13" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>